--- a/ERP/ERP.Web/Content/Files/IMPORT_KHO.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_KHO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24915" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="24915" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Mã kho</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>HOPLONG</t>
+  </si>
+  <si>
+    <t>TADN</t>
+  </si>
+  <si>
+    <t>TAHP</t>
+  </si>
+  <si>
+    <t>Hợp Long</t>
+  </si>
+  <si>
+    <t>Trường An Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Trường An Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Trường An Hải Phòng</t>
+  </si>
+  <si>
+    <t>TAHCM</t>
   </si>
 </sst>
 </file>
@@ -390,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,17 +722,73 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="T">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
